--- a/BalanceSheet/HLT_bal.xlsx
+++ b/BalanceSheet/HLT_bal.xlsx
@@ -3070,19 +3070,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-93000000.0</v>
+        <v>455000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>538000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-81000000.0</v>
+        <v>551000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>634000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>695000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>873000000.0</v>
